--- a/data/unchecked/manual_collect/china/zhejiang/zhejiangCaseStatistics_20200318.xlsx
+++ b/data/unchecked/manual_collect/china/zhejiang/zhejiangCaseStatistics_20200318.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ncp/zhejiang/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Documents/GitHub/COVID-19/data/unchecked/manual_collect/china/zhejiang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A64665-1BE6-3F46-9468-13059480D048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA1AF4B-1645-1048-8107-9A087E807E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9359" uniqueCount="3306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9380" uniqueCount="3307">
   <si>
     <t>统计级别</t>
   </si>
@@ -10329,6 +10329,10 @@
   </si>
   <si>
     <t>2020年3月19日浙江省新型冠状病毒肺炎疫情情况 2020年3月18日0-24时，浙江省新增新型冠状病毒肺炎确诊病例1例（境外输入病例），新增出院病例1例。其中：新增确诊病例中，丽水市1例；新增出院病例中，湖州市1例。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10826,10 +10830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN15"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
@@ -11674,17 +11678,11 @@
       <c r="H14" s="13" t="s">
         <v>3300</v>
       </c>
-      <c r="I14" s="13">
+      <c r="M14" s="13">
+        <v>15</v>
+      </c>
+      <c r="O14" s="13">
         <v>1</v>
-      </c>
-      <c r="K14" s="13">
-        <v>1</v>
-      </c>
-      <c r="M14" s="13">
-        <v>16</v>
-      </c>
-      <c r="O14" s="13">
-        <v>2</v>
       </c>
       <c r="S14" s="13" t="s">
         <v>3292</v>
@@ -11716,7 +11714,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>3290</v>
+        <v>3302</v>
       </c>
       <c r="C15" s="14">
         <v>43908</v>
@@ -11730,20 +11728,22 @@
       <c r="F15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="I15" s="22">
+      <c r="G15" s="24" t="s">
+        <v>3301</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>3306</v>
+      </c>
+      <c r="I15" s="13">
         <v>1</v>
       </c>
       <c r="K15" s="13">
         <v>1</v>
       </c>
       <c r="M15" s="13">
-        <v>1233</v>
+        <v>1</v>
       </c>
       <c r="O15" s="13">
-        <v>1217</v>
-      </c>
-      <c r="P15" s="13">
         <v>1</v>
       </c>
       <c r="S15" s="13" t="s">
@@ -11768,6 +11768,125 @@
         <v>3294</v>
       </c>
       <c r="AC15" s="13" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>3289</v>
+      </c>
+      <c r="C16" s="14">
+        <v>43908</v>
+      </c>
+      <c r="D16" s="14">
+        <v>43909</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>3291</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>3301</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1</v>
+      </c>
+      <c r="K16" s="13">
+        <v>1</v>
+      </c>
+      <c r="M16" s="13">
+        <v>16</v>
+      </c>
+      <c r="O16" s="13">
+        <v>2</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>3292</v>
+      </c>
+      <c r="T16" s="23">
+        <v>43909.374305497688</v>
+      </c>
+      <c r="U16" s="23" t="s">
+        <v>3304</v>
+      </c>
+      <c r="V16" s="21" t="s">
+        <v>3303</v>
+      </c>
+      <c r="Z16" s="23">
+        <v>43909.379861111112</v>
+      </c>
+      <c r="AA16" s="13" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AB16" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AC16" s="13" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C17" s="14">
+        <v>43908</v>
+      </c>
+      <c r="D17" s="14">
+        <v>43909</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>3291</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="I17" s="22">
+        <v>1</v>
+      </c>
+      <c r="K17" s="13">
+        <v>1</v>
+      </c>
+      <c r="M17" s="13">
+        <v>1233</v>
+      </c>
+      <c r="O17" s="13">
+        <v>1217</v>
+      </c>
+      <c r="P17" s="13">
+        <v>1</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>3292</v>
+      </c>
+      <c r="T17" s="23">
+        <v>43909.374305497688</v>
+      </c>
+      <c r="U17" s="23" t="s">
+        <v>3304</v>
+      </c>
+      <c r="V17" s="21" t="s">
+        <v>3303</v>
+      </c>
+      <c r="Z17" s="23">
+        <v>43909.379861111112</v>
+      </c>
+      <c r="AA17" s="13" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AB17" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AC17" s="13" t="s">
         <v>3295</v>
       </c>
     </row>
@@ -11789,13 +11908,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="E9:E15" xr:uid="{BEB8021D-556B-4D4F-BE91-CE635A06A0BE}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="E9:E17" xr:uid="{BEB8021D-556B-4D4F-BE91-CE635A06A0BE}">
       <formula1>INDIRECT($D9)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15:G1048576 G2:G12" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G12 G17:G1048576 H15" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H14 H16:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -11813,7 +11932,9 @@
     <hyperlink ref="V9" r:id="rId11" xr:uid="{A6E0006E-9736-3A42-97EA-A60D435D08F4}"/>
     <hyperlink ref="V11" r:id="rId12" xr:uid="{19E16988-1655-4A42-8504-5D314303C404}"/>
     <hyperlink ref="V13" r:id="rId13" xr:uid="{05E36A96-3449-5941-9500-5CBE8A58F57B}"/>
-    <hyperlink ref="V15" r:id="rId14" xr:uid="{15839622-56BD-9649-8A88-47F65BE9A414}"/>
+    <hyperlink ref="V17" r:id="rId14" xr:uid="{15839622-56BD-9649-8A88-47F65BE9A414}"/>
+    <hyperlink ref="V16" r:id="rId15" xr:uid="{AD3D5731-1BFC-CC4C-ABF7-E4B2020C533F}"/>
+    <hyperlink ref="V15" r:id="rId16" xr:uid="{828120F5-2CCB-D94D-B0B0-4DA34413EC1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11824,13 +11945,13 @@
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
-          <xm:sqref>F16:F1048576</xm:sqref>
+          <xm:sqref>F18:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{07978CB6-F70C-4044-BED2-EFABB2019499}">
           <x14:formula1>
             <xm:f>'/Users/nicole/Desktop/ncp/[zhejiangCaseStatistics_20200211.xlsx]中国各省市区县数据'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F15</xm:sqref>
+          <xm:sqref>F2:F17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
